--- a/data/trans_orig/P14A35_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A35_2012-Estudios-trans_orig.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>41,59%</t>
+          <t>38,85%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>75,78%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>42,59%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>79,98%</t>
+          <t>80,4%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>56,92%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>76,15%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>39,67%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P14A35_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A35_2012-Estudios-trans_orig.xlsx
@@ -710,7 +710,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>35,92%</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>76,7%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,97%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>82,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>80,4%</t>
+          <t>82,47%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>55,22%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>55,22%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>76,82%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,95%</t>
         </is>
       </c>
     </row>
